--- a/SchedulingData/dynamic12/pso/scheduling1_19.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling1_19.xlsx
@@ -462,135 +462,135 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>64.72</v>
+        <v>79.88</v>
       </c>
       <c r="E2" t="n">
-        <v>27.668</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>47.36</v>
+        <v>50.76</v>
       </c>
       <c r="E3" t="n">
-        <v>26.464</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>50.76</v>
       </c>
       <c r="D4" t="n">
-        <v>59.3</v>
+        <v>91.36</v>
       </c>
       <c r="E4" t="n">
-        <v>27.72</v>
+        <v>24.204</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64.72</v>
+        <v>79.88</v>
       </c>
       <c r="D5" t="n">
-        <v>121.42</v>
+        <v>134.5</v>
       </c>
       <c r="E5" t="n">
-        <v>24.128</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>72.06</v>
+        <v>69.56</v>
       </c>
       <c r="E6" t="n">
-        <v>25.464</v>
+        <v>26.724</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>47.36</v>
+        <v>91.36</v>
       </c>
       <c r="D7" t="n">
-        <v>92.26000000000001</v>
+        <v>166.26</v>
       </c>
       <c r="E7" t="n">
-        <v>24.104</v>
+        <v>20.844</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>49.12</v>
+        <v>47.54</v>
       </c>
       <c r="E8" t="n">
-        <v>25.788</v>
+        <v>26.436</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>48.6</v>
+        <v>49.12</v>
       </c>
       <c r="E9" t="n">
-        <v>25.84</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="10">
@@ -618,226 +618,226 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>49.12</v>
+        <v>69.56</v>
       </c>
       <c r="D10" t="n">
-        <v>118.14</v>
+        <v>121.12</v>
       </c>
       <c r="E10" t="n">
-        <v>22.956</v>
+        <v>23.188</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>121.42</v>
+        <v>121.12</v>
       </c>
       <c r="D11" t="n">
-        <v>183.86</v>
+        <v>174</v>
       </c>
       <c r="E11" t="n">
-        <v>21.004</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>92.26000000000001</v>
+        <v>166.26</v>
       </c>
       <c r="D12" t="n">
-        <v>157.24</v>
+        <v>223.06</v>
       </c>
       <c r="E12" t="n">
-        <v>20.696</v>
+        <v>17.764</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>118.14</v>
+        <v>47.54</v>
       </c>
       <c r="D13" t="n">
-        <v>168.04</v>
+        <v>110.54</v>
       </c>
       <c r="E13" t="n">
-        <v>20.076</v>
+        <v>23.716</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>48.6</v>
+        <v>174</v>
       </c>
       <c r="D14" t="n">
-        <v>101.2</v>
+        <v>230.5</v>
       </c>
       <c r="E14" t="n">
-        <v>21.22</v>
+        <v>16.96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>157.24</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>243.78</v>
+        <v>80.62</v>
       </c>
       <c r="E15" t="n">
-        <v>17.132</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>243.78</v>
+        <v>230.5</v>
       </c>
       <c r="D16" t="n">
-        <v>308.78</v>
+        <v>260.1</v>
       </c>
       <c r="E16" t="n">
-        <v>13.772</v>
+        <v>14.64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>59.3</v>
+        <v>49.12</v>
       </c>
       <c r="D17" t="n">
-        <v>115.84</v>
+        <v>108.8</v>
       </c>
       <c r="E17" t="n">
-        <v>24.696</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>101.2</v>
+        <v>223.06</v>
       </c>
       <c r="D18" t="n">
-        <v>164.94</v>
+        <v>305.56</v>
       </c>
       <c r="E18" t="n">
-        <v>18.436</v>
+        <v>13.604</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>183.86</v>
+        <v>134.5</v>
       </c>
       <c r="D19" t="n">
-        <v>233.26</v>
+        <v>198.54</v>
       </c>
       <c r="E19" t="n">
-        <v>18.684</v>
+        <v>20.536</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>164.94</v>
+        <v>80.62</v>
       </c>
       <c r="D20" t="n">
-        <v>222.14</v>
+        <v>133.06</v>
       </c>
       <c r="E20" t="n">
-        <v>14.356</v>
+        <v>23.444</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>168.04</v>
+        <v>198.54</v>
       </c>
       <c r="D21" t="n">
-        <v>236.34</v>
+        <v>234.58</v>
       </c>
       <c r="E21" t="n">
-        <v>17.356</v>
+        <v>17.572</v>
       </c>
     </row>
     <row r="22">
@@ -846,36 +846,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>115.84</v>
+        <v>133.06</v>
       </c>
       <c r="D22" t="n">
-        <v>190.32</v>
+        <v>194.62</v>
       </c>
       <c r="E22" t="n">
-        <v>20.848</v>
+        <v>18.908</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>190.32</v>
+        <v>108.8</v>
       </c>
       <c r="D23" t="n">
-        <v>253.96</v>
+        <v>145.62</v>
       </c>
       <c r="E23" t="n">
-        <v>17.104</v>
+        <v>19.388</v>
       </c>
     </row>
     <row r="24">
@@ -884,93 +884,93 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>72.06</v>
+        <v>110.54</v>
       </c>
       <c r="D24" t="n">
-        <v>132.38</v>
+        <v>176.16</v>
       </c>
       <c r="E24" t="n">
-        <v>22.032</v>
+        <v>20.244</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>233.26</v>
+        <v>194.62</v>
       </c>
       <c r="D25" t="n">
-        <v>285.32</v>
+        <v>249.22</v>
       </c>
       <c r="E25" t="n">
-        <v>16.088</v>
+        <v>16.048</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>222.14</v>
+        <v>176.16</v>
       </c>
       <c r="D26" t="n">
-        <v>269.34</v>
+        <v>218.32</v>
       </c>
       <c r="E26" t="n">
-        <v>11.276</v>
+        <v>17.648</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>285.32</v>
+        <v>234.58</v>
       </c>
       <c r="D27" t="n">
-        <v>332.14</v>
+        <v>283.32</v>
       </c>
       <c r="E27" t="n">
-        <v>13.536</v>
+        <v>13.828</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>253.96</v>
+        <v>260.1</v>
       </c>
       <c r="D28" t="n">
-        <v>303.72</v>
+        <v>320</v>
       </c>
       <c r="E28" t="n">
-        <v>14.728</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="29">
@@ -979,93 +979,93 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>132.38</v>
+        <v>218.32</v>
       </c>
       <c r="D29" t="n">
-        <v>182.16</v>
+        <v>273.62</v>
       </c>
       <c r="E29" t="n">
-        <v>18.184</v>
+        <v>13.748</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>308.78</v>
+        <v>273.62</v>
       </c>
       <c r="D30" t="n">
-        <v>379.8</v>
+        <v>335.62</v>
       </c>
       <c r="E30" t="n">
-        <v>10.3</v>
+        <v>9.667999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>303.72</v>
+        <v>145.62</v>
       </c>
       <c r="D31" t="n">
-        <v>344.32</v>
+        <v>190.04</v>
       </c>
       <c r="E31" t="n">
-        <v>11.308</v>
+        <v>17.056</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>269.34</v>
+        <v>249.22</v>
       </c>
       <c r="D32" t="n">
-        <v>344.54</v>
+        <v>295.76</v>
       </c>
       <c r="E32" t="n">
-        <v>7.376</v>
+        <v>13.024</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>236.34</v>
+        <v>190.04</v>
       </c>
       <c r="D33" t="n">
-        <v>305</v>
+        <v>235.52</v>
       </c>
       <c r="E33" t="n">
-        <v>14.08</v>
+        <v>13.648</v>
       </c>
     </row>
     <row r="34">
@@ -1074,112 +1074,112 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>182.16</v>
+        <v>335.62</v>
       </c>
       <c r="D34" t="n">
-        <v>239.46</v>
+        <v>386.66</v>
       </c>
       <c r="E34" t="n">
-        <v>15.544</v>
+        <v>6.704</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>239.46</v>
+        <v>235.52</v>
       </c>
       <c r="D35" t="n">
-        <v>287.44</v>
+        <v>300.02</v>
       </c>
       <c r="E35" t="n">
-        <v>12.856</v>
+        <v>10.288</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>344.54</v>
+        <v>283.32</v>
       </c>
       <c r="D36" t="n">
-        <v>409.14</v>
+        <v>324.78</v>
       </c>
       <c r="E36" t="n">
-        <v>4.516</v>
+        <v>10.812</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>287.44</v>
+        <v>300.02</v>
       </c>
       <c r="D37" t="n">
-        <v>325.76</v>
+        <v>367.52</v>
       </c>
       <c r="E37" t="n">
-        <v>9.664</v>
+        <v>5.668</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>344.32</v>
+        <v>305.56</v>
       </c>
       <c r="D38" t="n">
-        <v>404.86</v>
+        <v>343.26</v>
       </c>
       <c r="E38" t="n">
-        <v>8.343999999999999</v>
+        <v>10.964</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>325.76</v>
+        <v>343.26</v>
       </c>
       <c r="D39" t="n">
-        <v>390.46</v>
+        <v>378.26</v>
       </c>
       <c r="E39" t="n">
-        <v>6.304</v>
+        <v>8.603999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>379.8</v>
+        <v>324.78</v>
       </c>
       <c r="D40" t="n">
-        <v>421.26</v>
+        <v>373.78</v>
       </c>
       <c r="E40" t="n">
-        <v>7.284</v>
+        <v>8.532</v>
       </c>
     </row>
     <row r="41">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>404.86</v>
+        <v>295.76</v>
       </c>
       <c r="D41" t="n">
-        <v>445.9</v>
+        <v>358.88</v>
       </c>
       <c r="E41" t="n">
-        <v>5.38</v>
+        <v>9.832000000000001</v>
       </c>
     </row>
   </sheetData>
